--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.2610297725779</v>
+        <v>24.90731</v>
       </c>
       <c r="N2">
-        <v>21.2610297725779</v>
+        <v>74.72192999999999</v>
       </c>
       <c r="O2">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="P2">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="Q2">
-        <v>1646.948046019369</v>
+        <v>2662.058165190463</v>
       </c>
       <c r="R2">
-        <v>1646.948046019369</v>
+        <v>23958.52348671416</v>
       </c>
       <c r="S2">
-        <v>0.03921076574141749</v>
+        <v>0.05467520351062582</v>
       </c>
       <c r="T2">
-        <v>0.03921076574141749</v>
+        <v>0.05467520351062582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.4992546209444</v>
+        <v>25.556757</v>
       </c>
       <c r="N3">
-        <v>25.4992546209444</v>
+        <v>76.670271</v>
       </c>
       <c r="O3">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="P3">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="Q3">
-        <v>1975.25463357755</v>
+        <v>2731.470144613711</v>
       </c>
       <c r="R3">
-        <v>1975.25463357755</v>
+        <v>24583.2313015234</v>
       </c>
       <c r="S3">
-        <v>0.04702713416130911</v>
+        <v>0.05610083505792521</v>
       </c>
       <c r="T3">
-        <v>0.04702713416130911</v>
+        <v>0.05610083505792521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.3758569102686</v>
+        <v>17.81668766666667</v>
       </c>
       <c r="N4">
-        <v>17.3758569102686</v>
+        <v>53.450063</v>
       </c>
       <c r="O4">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="P4">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="Q4">
-        <v>1345.990005770506</v>
+        <v>1904.222450344827</v>
       </c>
       <c r="R4">
-        <v>1345.990005770506</v>
+        <v>17138.00205310345</v>
       </c>
       <c r="S4">
-        <v>0.03204551529971928</v>
+        <v>0.03911024611089102</v>
       </c>
       <c r="T4">
-        <v>0.03204551529971928</v>
+        <v>0.03911024611089102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.208146708010138</v>
+        <v>0.4503323333333333</v>
       </c>
       <c r="N5">
-        <v>0.208146708010138</v>
+        <v>1.350997</v>
       </c>
       <c r="O5">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="P5">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="Q5">
-        <v>16.12371638201679</v>
+        <v>48.13088466796589</v>
       </c>
       <c r="R5">
-        <v>16.12371638201679</v>
+        <v>433.177962011693</v>
       </c>
       <c r="S5">
-        <v>0.0003838756586550396</v>
+        <v>0.0009885456106024692</v>
       </c>
       <c r="T5">
-        <v>0.0003838756586550396</v>
+        <v>0.0009885456106024692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.2610297725779</v>
+        <v>24.90731</v>
       </c>
       <c r="N6">
-        <v>21.2610297725779</v>
+        <v>74.72192999999999</v>
       </c>
       <c r="O6">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="P6">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="Q6">
-        <v>1636.465406805413</v>
+        <v>1923.66435536713</v>
       </c>
       <c r="R6">
-        <v>1636.465406805413</v>
+        <v>17312.97919830417</v>
       </c>
       <c r="S6">
-        <v>0.0389611936243348</v>
+        <v>0.03950955748869204</v>
       </c>
       <c r="T6">
-        <v>0.0389611936243348</v>
+        <v>0.03950955748869204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.4992546209444</v>
+        <v>25.556757</v>
       </c>
       <c r="N7">
-        <v>25.4992546209444</v>
+        <v>76.670271</v>
       </c>
       <c r="O7">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="P7">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="Q7">
-        <v>1962.682359831858</v>
+        <v>1973.823045510711</v>
       </c>
       <c r="R7">
-        <v>1962.682359831858</v>
+        <v>17764.4074095964</v>
       </c>
       <c r="S7">
-        <v>0.04672781173770818</v>
+        <v>0.04053975157959783</v>
       </c>
       <c r="T7">
-        <v>0.04672781173770818</v>
+        <v>0.04053975157959783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.3758569102686</v>
+        <v>17.81668766666667</v>
       </c>
       <c r="N8">
-        <v>17.3758569102686</v>
+        <v>53.450063</v>
       </c>
       <c r="O8">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="P8">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="Q8">
-        <v>1337.42293065834</v>
+        <v>1376.034866674716</v>
       </c>
       <c r="R8">
-        <v>1337.42293065834</v>
+        <v>12384.31380007245</v>
       </c>
       <c r="S8">
-        <v>0.03184154919640218</v>
+        <v>0.02826196187481655</v>
       </c>
       <c r="T8">
-        <v>0.03184154919640218</v>
+        <v>0.02826196187481656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.208146708010138</v>
+        <v>0.4503323333333333</v>
       </c>
       <c r="N9">
-        <v>0.208146708010138</v>
+        <v>1.350997</v>
       </c>
       <c r="O9">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="P9">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="Q9">
-        <v>16.02109073937472</v>
+        <v>34.78048242474367</v>
       </c>
       <c r="R9">
-        <v>16.02109073937472</v>
+        <v>313.024341822693</v>
       </c>
       <c r="S9">
-        <v>0.000381432333231128</v>
+        <v>0.0007143457568420742</v>
       </c>
       <c r="T9">
-        <v>0.000381432333231128</v>
+        <v>0.0007143457568420742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H10">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.2610297725779</v>
+        <v>24.90731</v>
       </c>
       <c r="N10">
-        <v>21.2610297725779</v>
+        <v>74.72192999999999</v>
       </c>
       <c r="O10">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="P10">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="Q10">
-        <v>2587.711615472639</v>
+        <v>3404.23989532347</v>
       </c>
       <c r="R10">
-        <v>2587.711615472639</v>
+        <v>30638.15905791123</v>
       </c>
       <c r="S10">
-        <v>0.06160859427586906</v>
+        <v>0.06991864847644504</v>
       </c>
       <c r="T10">
-        <v>0.06160859427586906</v>
+        <v>0.06991864847644504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H11">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I11">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J11">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.4992546209444</v>
+        <v>25.556757</v>
       </c>
       <c r="N11">
-        <v>25.4992546209444</v>
+        <v>76.670271</v>
       </c>
       <c r="O11">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="P11">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="Q11">
-        <v>3103.552277303995</v>
+        <v>3493.00393235911</v>
       </c>
       <c r="R11">
-        <v>3103.552277303995</v>
+        <v>31437.03539123198</v>
       </c>
       <c r="S11">
-        <v>0.07388979974549757</v>
+        <v>0.0717417460529028</v>
       </c>
       <c r="T11">
-        <v>0.07388979974549757</v>
+        <v>0.0717417460529028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H12">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I12">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J12">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.3758569102686</v>
+        <v>17.81668766666667</v>
       </c>
       <c r="N12">
-        <v>17.3758569102686</v>
+        <v>53.450063</v>
       </c>
       <c r="O12">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="P12">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="Q12">
-        <v>2114.841436960216</v>
+        <v>2435.119607753077</v>
       </c>
       <c r="R12">
-        <v>2114.841436960216</v>
+        <v>21916.07646977769</v>
       </c>
       <c r="S12">
-        <v>0.05035043598692517</v>
+        <v>0.05001418145838634</v>
       </c>
       <c r="T12">
-        <v>0.05035043598692517</v>
+        <v>0.05001418145838634</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H13">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I13">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J13">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.208146708010138</v>
+        <v>0.4503323333333333</v>
       </c>
       <c r="N13">
-        <v>0.208146708010138</v>
+        <v>1.350997</v>
       </c>
       <c r="O13">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="P13">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="Q13">
-        <v>25.33384599907447</v>
+        <v>61.54977375266301</v>
       </c>
       <c r="R13">
-        <v>25.33384599907447</v>
+        <v>553.947963773967</v>
       </c>
       <c r="S13">
-        <v>0.0006031516921251887</v>
+        <v>0.001264152094783042</v>
       </c>
       <c r="T13">
-        <v>0.0006031516921251887</v>
+        <v>0.001264152094783042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H14">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I14">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J14">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.2610297725779</v>
+        <v>24.90731</v>
       </c>
       <c r="N14">
-        <v>21.2610297725779</v>
+        <v>74.72192999999999</v>
       </c>
       <c r="O14">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="P14">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="Q14">
-        <v>2984.342008877646</v>
+        <v>3573.096056103453</v>
       </c>
       <c r="R14">
-        <v>2984.342008877646</v>
+        <v>32157.86450493107</v>
       </c>
       <c r="S14">
-        <v>0.07105162526844909</v>
+        <v>0.0733867338381366</v>
       </c>
       <c r="T14">
-        <v>0.07105162526844909</v>
+        <v>0.0733867338381366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H15">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I15">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J15">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.4992546209444</v>
+        <v>25.556757</v>
       </c>
       <c r="N15">
-        <v>25.4992546209444</v>
+        <v>76.670271</v>
       </c>
       <c r="O15">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="P15">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="Q15">
-        <v>3579.247927986174</v>
+        <v>3666.262942224364</v>
       </c>
       <c r="R15">
-        <v>3579.247927986174</v>
+        <v>32996.36648001927</v>
       </c>
       <c r="S15">
-        <v>0.08521522726471559</v>
+        <v>0.07530026019369152</v>
       </c>
       <c r="T15">
-        <v>0.08521522726471559</v>
+        <v>0.07530026019369152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H16">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I16">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J16">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.3758569102686</v>
+        <v>17.81668766666667</v>
       </c>
       <c r="N16">
-        <v>17.3758569102686</v>
+        <v>53.450063</v>
       </c>
       <c r="O16">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="P16">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="Q16">
-        <v>2438.992855578605</v>
+        <v>2555.905733481203</v>
       </c>
       <c r="R16">
-        <v>2438.992855578605</v>
+        <v>23003.15160133082</v>
       </c>
       <c r="S16">
-        <v>0.0580678775728417</v>
+        <v>0.05249497098124517</v>
       </c>
       <c r="T16">
-        <v>0.0580678775728417</v>
+        <v>0.05249497098124517</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H17">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I17">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J17">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.208146708010138</v>
+        <v>0.4503323333333333</v>
       </c>
       <c r="N17">
-        <v>0.208146708010138</v>
+        <v>1.350997</v>
       </c>
       <c r="O17">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="P17">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="Q17">
-        <v>29.21688043188916</v>
+        <v>64.60274851717021</v>
       </c>
       <c r="R17">
-        <v>29.21688043188916</v>
+        <v>581.424736654532</v>
       </c>
       <c r="S17">
-        <v>0.0006955995103055834</v>
+        <v>0.001326856215506225</v>
       </c>
       <c r="T17">
-        <v>0.0006955995103055834</v>
+        <v>0.001326856215506225</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H18">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I18">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J18">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.2610297725779</v>
+        <v>24.90731</v>
       </c>
       <c r="N18">
-        <v>21.2610297725779</v>
+        <v>74.72192999999999</v>
       </c>
       <c r="O18">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="P18">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="Q18">
-        <v>4128.030773533547</v>
+        <v>4946.547198519972</v>
       </c>
       <c r="R18">
-        <v>4128.030773533547</v>
+        <v>44518.92478667975</v>
       </c>
       <c r="S18">
-        <v>0.09828072477793433</v>
+        <v>0.1015956293857483</v>
       </c>
       <c r="T18">
-        <v>0.09828072477793433</v>
+        <v>0.1015956293857483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H19">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I19">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J19">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.4992546209444</v>
+        <v>25.556757</v>
       </c>
       <c r="N19">
-        <v>25.4992546209444</v>
+        <v>76.670271</v>
       </c>
       <c r="O19">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="P19">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="Q19">
-        <v>4950.922363750728</v>
+        <v>5075.526210642808</v>
       </c>
       <c r="R19">
-        <v>4950.922363750728</v>
+        <v>45679.73589578527</v>
       </c>
       <c r="S19">
-        <v>0.1178722410085616</v>
+        <v>0.1042446901120045</v>
       </c>
       <c r="T19">
-        <v>0.1178722410085616</v>
+        <v>0.1042446901120045</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H20">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I20">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J20">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.3758569102686</v>
+        <v>17.81668766666667</v>
       </c>
       <c r="N20">
-        <v>17.3758569102686</v>
+        <v>53.450063</v>
       </c>
       <c r="O20">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="P20">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="Q20">
-        <v>3373.687578134993</v>
+        <v>3538.362290606868</v>
       </c>
       <c r="R20">
-        <v>3373.687578134993</v>
+        <v>31845.26061546182</v>
       </c>
       <c r="S20">
-        <v>0.08032121816514518</v>
+        <v>0.07267334758608217</v>
       </c>
       <c r="T20">
-        <v>0.08032121816514518</v>
+        <v>0.07267334758608217</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H21">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I21">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J21">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.208146708010138</v>
+        <v>0.4503323333333333</v>
       </c>
       <c r="N21">
-        <v>0.208146708010138</v>
+        <v>1.350997</v>
       </c>
       <c r="O21">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="P21">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="Q21">
-        <v>40.4136594166186</v>
+        <v>89.43519560534489</v>
       </c>
       <c r="R21">
-        <v>40.4136594166186</v>
+        <v>804.916760448104</v>
       </c>
       <c r="S21">
-        <v>0.0009621739653345606</v>
+        <v>0.001836882298319354</v>
       </c>
       <c r="T21">
-        <v>0.0009621739653345606</v>
+        <v>0.001836882298319354</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H22">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I22">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J22">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.2610297725779</v>
+        <v>24.90731</v>
       </c>
       <c r="N22">
-        <v>21.2610297725779</v>
+        <v>74.72192999999999</v>
       </c>
       <c r="O22">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="P22">
-        <v>0.3304260631289996</v>
+        <v>0.3623878376898069</v>
       </c>
       <c r="Q22">
-        <v>895.2048151094564</v>
+        <v>1134.544517256277</v>
       </c>
       <c r="R22">
-        <v>895.2048151094564</v>
+        <v>10210.90065530649</v>
       </c>
       <c r="S22">
-        <v>0.02131315944099492</v>
+        <v>0.02330206499015902</v>
       </c>
       <c r="T22">
-        <v>0.02131315944099492</v>
+        <v>0.02330206499015902</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H23">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I23">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J23">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.4992546209444</v>
+        <v>25.556757</v>
       </c>
       <c r="N23">
-        <v>25.4992546209444</v>
+        <v>76.670271</v>
       </c>
       <c r="O23">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="P23">
-        <v>0.3962939898607274</v>
+        <v>0.3718369389385621</v>
       </c>
       <c r="Q23">
-        <v>1073.657097635667</v>
+        <v>1164.127259555567</v>
       </c>
       <c r="R23">
-        <v>1073.657097635667</v>
+        <v>10477.1453360001</v>
       </c>
       <c r="S23">
-        <v>0.02556177594293537</v>
+        <v>0.02390965594244026</v>
       </c>
       <c r="T23">
-        <v>0.02556177594293537</v>
+        <v>0.02390965594244026</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H24">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I24">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J24">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.3758569102686</v>
+        <v>17.81668766666667</v>
       </c>
       <c r="N24">
-        <v>17.3758569102686</v>
+        <v>53.450063</v>
       </c>
       <c r="O24">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="P24">
-        <v>0.2700450567901503</v>
+        <v>0.2592231324184741</v>
       </c>
       <c r="Q24">
-        <v>731.6179385058701</v>
+        <v>811.5619594361733</v>
       </c>
       <c r="R24">
-        <v>731.6179385058701</v>
+        <v>7304.057634925559</v>
       </c>
       <c r="S24">
-        <v>0.01741846056911687</v>
+        <v>0.01666842440705284</v>
       </c>
       <c r="T24">
-        <v>0.01741846056911687</v>
+        <v>0.01666842440705284</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H25">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I25">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J25">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.208146708010138</v>
+        <v>0.4503323333333333</v>
       </c>
       <c r="N25">
-        <v>0.208146708010138</v>
+        <v>1.350997</v>
       </c>
       <c r="O25">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="P25">
-        <v>0.003234890220122771</v>
+        <v>0.006552090953156805</v>
       </c>
       <c r="Q25">
-        <v>8.764106783773371</v>
+        <v>20.51293695411345</v>
       </c>
       <c r="R25">
-        <v>8.764106783773371</v>
+        <v>184.616432587021</v>
       </c>
       <c r="S25">
-        <v>0.0002086570604712712</v>
+        <v>0.0004213089771036411</v>
       </c>
       <c r="T25">
-        <v>0.0002086570604712712</v>
+        <v>0.0004213089771036411</v>
       </c>
     </row>
   </sheetData>
